--- a/data/output/FV2504_FV2410/UTILMD/55074.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55074.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6186" uniqueCount="532">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6207" uniqueCount="532">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1751,6 +1751,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U277" totalsRowShown="0">
+  <autoFilter ref="A1:U277"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2040,7 +2070,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U277"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -15374,5 +15407,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55074.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55074.xlsx
@@ -2548,7 +2548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2571,6 +2571,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2579,6 +2582,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3021,7 +3027,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3385,7 +3391,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3527,7 +3533,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3729,7 +3735,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3929,7 +3935,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -4237,7 +4243,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -4437,7 +4443,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -4811,7 +4817,7 @@
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N37" s="2" t="s">
@@ -5069,7 +5075,7 @@
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -5245,52 +5251,52 @@
       <c r="V45" s="5"/>
     </row>
     <row r="46" spans="1:22">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E46" s="5"/>
+      <c r="E46" s="2"/>
       <c r="F46" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5" t="s">
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="K46" s="5"/>
+      <c r="K46" s="2"/>
       <c r="L46" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="M46" s="5" t="s">
+      <c r="M46" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N46" s="5" t="s">
+      <c r="N46" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O46" s="5" t="s">
+      <c r="O46" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="P46" s="5"/>
+      <c r="P46" s="2"/>
       <c r="Q46" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5" t="s">
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="V46" s="5"/>
+      <c r="V46" s="2"/>
     </row>
     <row r="47" spans="1:22">
       <c r="A47" s="5" t="s">
@@ -5491,7 +5497,7 @@
         <v>444</v>
       </c>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -5701,7 +5707,7 @@
         <v>446</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -5911,7 +5917,7 @@
         <v>447</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -6119,7 +6125,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -6327,7 +6333,7 @@
         <v>444</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -6455,52 +6461,52 @@
       <c r="V68" s="5"/>
     </row>
     <row r="69" spans="1:22">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E69" s="5"/>
+      <c r="E69" s="2"/>
       <c r="F69" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5" t="s">
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="K69" s="5"/>
+      <c r="K69" s="2"/>
       <c r="L69" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="M69" s="5" t="s">
+      <c r="M69" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N69" s="5" t="s">
+      <c r="N69" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O69" s="5" t="s">
+      <c r="O69" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="P69" s="5"/>
+      <c r="P69" s="2"/>
       <c r="Q69" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5" t="s">
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="V69" s="5"/>
+      <c r="V69" s="2"/>
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="5" t="s">
@@ -6645,7 +6651,7 @@
         <v>449</v>
       </c>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -6773,52 +6779,52 @@
       <c r="V74" s="5"/>
     </row>
     <row r="75" spans="1:22">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D75" s="5" t="s">
+      <c r="C75" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E75" s="5"/>
+      <c r="E75" s="2"/>
       <c r="F75" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5" t="s">
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="K75" s="5"/>
+      <c r="K75" s="2"/>
       <c r="L75" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="M75" s="5" t="s">
+      <c r="M75" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N75" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="O75" s="5" t="s">
+      <c r="N75" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O75" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="P75" s="5"/>
+      <c r="P75" s="2"/>
       <c r="Q75" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
-      <c r="U75" s="5" t="s">
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="V75" s="5"/>
+      <c r="V75" s="2"/>
     </row>
     <row r="76" spans="1:22">
       <c r="A76" s="5" t="s">
@@ -6963,7 +6969,7 @@
         <v>451</v>
       </c>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -7169,7 +7175,7 @@
         <v>444</v>
       </c>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -7481,7 +7487,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -7607,52 +7613,52 @@
       <c r="V90" s="5"/>
     </row>
     <row r="91" spans="1:22">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C91" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D91" s="5" t="s">
+      <c r="C91" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E91" s="5"/>
+      <c r="E91" s="2"/>
       <c r="F91" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5" t="s">
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="K91" s="5"/>
+      <c r="K91" s="2"/>
       <c r="L91" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="M91" s="5" t="s">
+      <c r="M91" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N91" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="O91" s="5" t="s">
+      <c r="N91" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O91" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="P91" s="5"/>
+      <c r="P91" s="2"/>
       <c r="Q91" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="R91" s="5"/>
-      <c r="S91" s="5"/>
-      <c r="T91" s="5"/>
-      <c r="U91" s="5" t="s">
+      <c r="R91" s="2"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="2"/>
+      <c r="U91" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="V91" s="5"/>
+      <c r="V91" s="2"/>
     </row>
     <row r="92" spans="1:22">
       <c r="A92" s="5" t="s">
@@ -7937,20 +7943,20 @@
       <c r="B97" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C97" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8" t="s">
+      <c r="C97" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="K97" s="8"/>
-      <c r="L97" s="9" t="s">
+      <c r="K97" s="9"/>
+      <c r="L97" s="10" t="s">
         <v>478</v>
       </c>
       <c r="M97" s="5"/>
@@ -7968,27 +7974,27 @@
       <c r="A98" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C98" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D98" s="8" t="s">
+      <c r="C98" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D98" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8" t="s">
+      <c r="E98" s="9"/>
+      <c r="F98" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8" t="s">
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="K98" s="8"/>
-      <c r="L98" s="9" t="s">
+      <c r="K98" s="9"/>
+      <c r="L98" s="10" t="s">
         <v>478</v>
       </c>
       <c r="M98" s="5"/>
@@ -8006,33 +8012,33 @@
       <c r="A99" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C99" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D99" s="8" t="s">
+      <c r="C99" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D99" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E99" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="F99" s="8" t="s">
+      <c r="F99" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="G99" s="8" t="s">
+      <c r="G99" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8" t="s">
+      <c r="H99" s="9"/>
+      <c r="I99" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="J99" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="K99" s="8"/>
-      <c r="L99" s="9" t="s">
+      <c r="J99" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="K99" s="9"/>
+      <c r="L99" s="10" t="s">
         <v>478</v>
       </c>
       <c r="M99" s="5"/>
@@ -8050,33 +8056,33 @@
       <c r="A100" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C100" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D100" s="8" t="s">
+      <c r="C100" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D100" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E100" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F100" s="8" t="s">
+      <c r="F100" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="G100" s="8" t="s">
+      <c r="G100" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8" t="s">
+      <c r="H100" s="9"/>
+      <c r="I100" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="J100" s="8" t="s">
+      <c r="J100" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="K100" s="8"/>
-      <c r="L100" s="9" t="s">
+      <c r="K100" s="9"/>
+      <c r="L100" s="10" t="s">
         <v>478</v>
       </c>
       <c r="M100" s="5"/>
@@ -8094,31 +8100,31 @@
       <c r="A101" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C101" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D101" s="8" t="s">
+      <c r="C101" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D101" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E101" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8" t="s">
+      <c r="F101" s="9"/>
+      <c r="G101" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8" t="s">
+      <c r="H101" s="9"/>
+      <c r="I101" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="J101" s="8" t="s">
+      <c r="J101" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="K101" s="8"/>
-      <c r="L101" s="9" t="s">
+      <c r="K101" s="9"/>
+      <c r="L101" s="10" t="s">
         <v>478</v>
       </c>
       <c r="M101" s="5"/>
@@ -8136,31 +8142,31 @@
       <c r="A102" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C102" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D102" s="8" t="s">
+      <c r="C102" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D102" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="E102" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8" t="s">
+      <c r="F102" s="9"/>
+      <c r="G102" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8" t="s">
+      <c r="H102" s="9"/>
+      <c r="I102" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="J102" s="8" t="s">
+      <c r="J102" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="K102" s="8"/>
-      <c r="L102" s="9" t="s">
+      <c r="K102" s="9"/>
+      <c r="L102" s="10" t="s">
         <v>478</v>
       </c>
       <c r="M102" s="5"/>
@@ -8178,33 +8184,33 @@
       <c r="A103" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C103" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D103" s="8" t="s">
+      <c r="C103" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D103" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E103" s="8" t="s">
+      <c r="E103" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8" t="s">
+      <c r="F103" s="9"/>
+      <c r="G103" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8" t="s">
+      <c r="H103" s="9"/>
+      <c r="I103" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="J103" s="8" t="s">
+      <c r="J103" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="K103" s="8" t="s">
+      <c r="K103" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="L103" s="9" t="s">
+      <c r="L103" s="10" t="s">
         <v>478</v>
       </c>
       <c r="M103" s="5"/>
@@ -8232,25 +8238,25 @@
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
-      <c r="L104" s="10" t="s">
+      <c r="L104" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="M104" s="11" t="s">
+      <c r="M104" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="N104" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="O104" s="11"/>
-      <c r="P104" s="11"/>
-      <c r="Q104" s="11"/>
-      <c r="R104" s="11"/>
-      <c r="S104" s="11"/>
-      <c r="T104" s="11"/>
-      <c r="U104" s="11" t="s">
+      <c r="N104" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="O104" s="13"/>
+      <c r="P104" s="13"/>
+      <c r="Q104" s="13"/>
+      <c r="R104" s="13"/>
+      <c r="S104" s="13"/>
+      <c r="T104" s="13"/>
+      <c r="U104" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="V104" s="11"/>
+      <c r="V104" s="13"/>
     </row>
     <row r="105" spans="1:22">
       <c r="A105" s="5" t="s">
@@ -8266,29 +8272,29 @@
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
-      <c r="L105" s="10" t="s">
+      <c r="L105" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="M105" s="11" t="s">
+      <c r="M105" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="N105" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="O105" s="11" t="s">
+      <c r="N105" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="O105" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="P105" s="11"/>
-      <c r="Q105" s="11" t="s">
+      <c r="P105" s="13"/>
+      <c r="Q105" s="13" t="s">
         <v>493</v>
       </c>
-      <c r="R105" s="11"/>
-      <c r="S105" s="11"/>
-      <c r="T105" s="11"/>
-      <c r="U105" s="11" t="s">
+      <c r="R105" s="13"/>
+      <c r="S105" s="13"/>
+      <c r="T105" s="13"/>
+      <c r="U105" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="V105" s="11"/>
+      <c r="V105" s="13"/>
     </row>
     <row r="106" spans="1:22">
       <c r="A106" s="5" t="s">
@@ -8304,35 +8310,35 @@
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
-      <c r="L106" s="10" t="s">
+      <c r="L106" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="M106" s="11" t="s">
+      <c r="M106" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="N106" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="O106" s="11" t="s">
+      <c r="N106" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="O106" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="P106" s="11" t="s">
+      <c r="P106" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Q106" s="11" t="s">
+      <c r="Q106" s="13" t="s">
         <v>493</v>
       </c>
-      <c r="R106" s="11" t="s">
+      <c r="R106" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="S106" s="11"/>
-      <c r="T106" s="11" t="s">
+      <c r="S106" s="13"/>
+      <c r="T106" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="U106" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="V106" s="11"/>
+      <c r="U106" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="V106" s="13"/>
     </row>
     <row r="107" spans="1:22">
       <c r="A107" s="5" t="s">
@@ -8348,35 +8354,35 @@
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
-      <c r="L107" s="10" t="s">
+      <c r="L107" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="M107" s="11" t="s">
+      <c r="M107" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="N107" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="O107" s="11" t="s">
+      <c r="N107" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="O107" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="P107" s="11" t="s">
+      <c r="P107" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="Q107" s="11" t="s">
+      <c r="Q107" s="13" t="s">
         <v>493</v>
       </c>
-      <c r="R107" s="11" t="s">
+      <c r="R107" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="S107" s="11"/>
-      <c r="T107" s="11" t="s">
+      <c r="S107" s="13"/>
+      <c r="T107" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="U107" s="11" t="s">
+      <c r="U107" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="V107" s="11"/>
+      <c r="V107" s="13"/>
     </row>
     <row r="108" spans="1:22">
       <c r="A108" s="5" t="s">
@@ -8392,33 +8398,33 @@
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
-      <c r="L108" s="10" t="s">
+      <c r="L108" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="M108" s="11" t="s">
+      <c r="M108" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="N108" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="O108" s="11" t="s">
+      <c r="N108" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="O108" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="P108" s="11" t="s">
+      <c r="P108" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="Q108" s="11"/>
-      <c r="R108" s="11" t="s">
+      <c r="Q108" s="13"/>
+      <c r="R108" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="S108" s="11"/>
-      <c r="T108" s="11" t="s">
+      <c r="S108" s="13"/>
+      <c r="T108" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="U108" s="11" t="s">
+      <c r="U108" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="V108" s="11"/>
+      <c r="V108" s="13"/>
     </row>
     <row r="109" spans="1:22">
       <c r="A109" s="5" t="s">
@@ -8434,33 +8440,33 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
-      <c r="L109" s="10" t="s">
+      <c r="L109" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="M109" s="11" t="s">
+      <c r="M109" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="N109" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="O109" s="11" t="s">
+      <c r="N109" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="O109" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="P109" s="11" t="s">
+      <c r="P109" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="Q109" s="11"/>
-      <c r="R109" s="11" t="s">
+      <c r="Q109" s="13"/>
+      <c r="R109" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="S109" s="11"/>
-      <c r="T109" s="11" t="s">
+      <c r="S109" s="13"/>
+      <c r="T109" s="13" t="s">
         <v>527</v>
       </c>
-      <c r="U109" s="11" t="s">
+      <c r="U109" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="V109" s="11"/>
+      <c r="V109" s="13"/>
     </row>
     <row r="110" spans="1:22">
       <c r="A110" s="5" t="s">
@@ -8476,53 +8482,53 @@
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
-      <c r="L110" s="10" t="s">
+      <c r="L110" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="M110" s="11" t="s">
+      <c r="M110" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="N110" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="O110" s="11" t="s">
+      <c r="N110" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="O110" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="P110" s="11" t="s">
+      <c r="P110" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="Q110" s="11"/>
-      <c r="R110" s="11" t="s">
+      <c r="Q110" s="13"/>
+      <c r="R110" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="S110" s="11"/>
-      <c r="T110" s="11" t="s">
+      <c r="S110" s="13"/>
+      <c r="T110" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="U110" s="11" t="s">
+      <c r="U110" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="V110" s="11" t="s">
+      <c r="V110" s="13" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="111" spans="1:22">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C111" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5" t="s">
+      <c r="C111" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2" t="s">
         <v>414</v>
       </c>
       <c r="K111" s="6" t="s">
@@ -8531,19 +8537,19 @@
       <c r="L111" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="M111" s="5" t="s">
+      <c r="M111" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N111" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="O111" s="5"/>
-      <c r="P111" s="5"/>
-      <c r="Q111" s="5"/>
-      <c r="R111" s="5"/>
-      <c r="S111" s="5"/>
-      <c r="T111" s="5"/>
-      <c r="U111" s="5" t="s">
+      <c r="N111" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O111" s="2"/>
+      <c r="P111" s="2"/>
+      <c r="Q111" s="2"/>
+      <c r="R111" s="2"/>
+      <c r="S111" s="2"/>
+      <c r="T111" s="2"/>
+      <c r="U111" s="2" t="s">
         <v>414</v>
       </c>
       <c r="V111" s="6" t="s">
@@ -8857,7 +8863,7 @@
         <v>449</v>
       </c>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -8985,52 +8991,52 @@
       <c r="V119" s="5"/>
     </row>
     <row r="120" spans="1:22">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C120" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D120" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E120" s="5"/>
+      <c r="E120" s="2"/>
       <c r="F120" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="5"/>
-      <c r="J120" s="5" t="s">
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="K120" s="5"/>
+      <c r="K120" s="2"/>
       <c r="L120" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="M120" s="5" t="s">
+      <c r="M120" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N120" s="5" t="s">
+      <c r="N120" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O120" s="5" t="s">
+      <c r="O120" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="P120" s="5"/>
+      <c r="P120" s="2"/>
       <c r="Q120" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="R120" s="5"/>
-      <c r="S120" s="5"/>
-      <c r="T120" s="5"/>
-      <c r="U120" s="5" t="s">
+      <c r="R120" s="2"/>
+      <c r="S120" s="2"/>
+      <c r="T120" s="2"/>
+      <c r="U120" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="V120" s="5"/>
+      <c r="V120" s="2"/>
     </row>
     <row r="121" spans="1:22">
       <c r="A121" s="5" t="s">
@@ -9153,52 +9159,52 @@
       </c>
     </row>
     <row r="123" spans="1:22">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B123" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C123" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="D123" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E123" s="5"/>
+      <c r="E123" s="2"/>
       <c r="F123" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="5"/>
-      <c r="J123" s="5" t="s">
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="K123" s="5"/>
+      <c r="K123" s="2"/>
       <c r="L123" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="M123" s="5" t="s">
+      <c r="M123" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N123" s="5" t="s">
+      <c r="N123" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O123" s="5" t="s">
+      <c r="O123" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P123" s="5"/>
+      <c r="P123" s="2"/>
       <c r="Q123" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="R123" s="5"/>
-      <c r="S123" s="5"/>
-      <c r="T123" s="5"/>
-      <c r="U123" s="5" t="s">
+      <c r="R123" s="2"/>
+      <c r="S123" s="2"/>
+      <c r="T123" s="2"/>
+      <c r="U123" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="V123" s="5"/>
+      <c r="V123" s="2"/>
     </row>
     <row r="124" spans="1:22">
       <c r="A124" s="5" t="s">
@@ -9403,7 +9409,7 @@
         <v>455</v>
       </c>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -9531,52 +9537,52 @@
       <c r="V129" s="5"/>
     </row>
     <row r="130" spans="1:22">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B130" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="C130" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D130" s="5" t="s">
+      <c r="D130" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E130" s="5"/>
+      <c r="E130" s="2"/>
       <c r="F130" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
-      <c r="I130" s="5"/>
-      <c r="J130" s="5" t="s">
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="K130" s="5"/>
+      <c r="K130" s="2"/>
       <c r="L130" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="M130" s="5" t="s">
+      <c r="M130" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N130" s="5" t="s">
+      <c r="N130" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O130" s="5" t="s">
+      <c r="O130" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="P130" s="5"/>
+      <c r="P130" s="2"/>
       <c r="Q130" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="R130" s="5"/>
-      <c r="S130" s="5"/>
-      <c r="T130" s="5"/>
-      <c r="U130" s="5" t="s">
+      <c r="R130" s="2"/>
+      <c r="S130" s="2"/>
+      <c r="T130" s="2"/>
+      <c r="U130" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="V130" s="5"/>
+      <c r="V130" s="2"/>
     </row>
     <row r="131" spans="1:22">
       <c r="A131" s="5" t="s">
@@ -9699,22 +9705,22 @@
       </c>
     </row>
     <row r="133" spans="1:22">
-      <c r="A133" s="5" t="s">
+      <c r="A133" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="B133" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C133" s="5" t="s">
+      <c r="C133" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5"/>
-      <c r="G133" s="5"/>
-      <c r="H133" s="5"/>
-      <c r="I133" s="5"/>
-      <c r="J133" s="5" t="s">
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2" t="s">
         <v>417</v>
       </c>
       <c r="K133" s="6" t="s">
@@ -9723,19 +9729,19 @@
       <c r="L133" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="M133" s="5" t="s">
+      <c r="M133" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N133" s="5" t="s">
+      <c r="N133" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="O133" s="5"/>
-      <c r="P133" s="5"/>
-      <c r="Q133" s="5"/>
-      <c r="R133" s="5"/>
-      <c r="S133" s="5"/>
-      <c r="T133" s="5"/>
-      <c r="U133" s="5" t="s">
+      <c r="O133" s="2"/>
+      <c r="P133" s="2"/>
+      <c r="Q133" s="2"/>
+      <c r="R133" s="2"/>
+      <c r="S133" s="2"/>
+      <c r="T133" s="2"/>
+      <c r="U133" s="2" t="s">
         <v>417</v>
       </c>
       <c r="V133" s="6" t="s">
@@ -9991,7 +9997,7 @@
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -10117,52 +10123,52 @@
       <c r="V140" s="5"/>
     </row>
     <row r="141" spans="1:22">
-      <c r="A141" s="5" t="s">
+      <c r="A141" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C141" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D141" s="5" t="s">
+      <c r="C141" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E141" s="5"/>
+      <c r="E141" s="2"/>
       <c r="F141" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G141" s="5"/>
-      <c r="H141" s="5"/>
-      <c r="I141" s="5"/>
-      <c r="J141" s="5" t="s">
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="K141" s="5"/>
+      <c r="K141" s="2"/>
       <c r="L141" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="M141" s="5" t="s">
+      <c r="M141" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N141" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="O141" s="5" t="s">
+      <c r="N141" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O141" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="P141" s="5"/>
+      <c r="P141" s="2"/>
       <c r="Q141" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="R141" s="5"/>
-      <c r="S141" s="5"/>
-      <c r="T141" s="5"/>
-      <c r="U141" s="5" t="s">
+      <c r="R141" s="2"/>
+      <c r="S141" s="2"/>
+      <c r="T141" s="2"/>
+      <c r="U141" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="V141" s="5"/>
+      <c r="V141" s="2"/>
     </row>
     <row r="142" spans="1:22">
       <c r="A142" s="5" t="s">
@@ -10301,7 +10307,7 @@
       </c>
       <c r="K144" s="2"/>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -10503,7 +10509,7 @@
       </c>
       <c r="K148" s="2"/>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -10765,7 +10771,7 @@
         <v>458</v>
       </c>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -10893,52 +10899,52 @@
       <c r="V155" s="5"/>
     </row>
     <row r="156" spans="1:22">
-      <c r="A156" s="5" t="s">
+      <c r="A156" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="B156" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C156" s="5" t="s">
+      <c r="C156" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D156" s="5" t="s">
+      <c r="D156" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E156" s="5"/>
+      <c r="E156" s="2"/>
       <c r="F156" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
-      <c r="I156" s="5"/>
-      <c r="J156" s="5" t="s">
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="K156" s="5"/>
+      <c r="K156" s="2"/>
       <c r="L156" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="M156" s="5" t="s">
+      <c r="M156" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="N156" s="5" t="s">
+      <c r="N156" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O156" s="5" t="s">
+      <c r="O156" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="P156" s="5"/>
+      <c r="P156" s="2"/>
       <c r="Q156" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="R156" s="5"/>
-      <c r="S156" s="5"/>
-      <c r="T156" s="5"/>
-      <c r="U156" s="5" t="s">
+      <c r="R156" s="2"/>
+      <c r="S156" s="2"/>
+      <c r="T156" s="2"/>
+      <c r="U156" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="V156" s="5"/>
+      <c r="V156" s="2"/>
     </row>
     <row r="157" spans="1:22">
       <c r="A157" s="5" t="s">
@@ -11061,52 +11067,52 @@
       </c>
     </row>
     <row r="159" spans="1:22">
-      <c r="A159" s="5" t="s">
+      <c r="A159" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B159" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="C159" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D159" s="5" t="s">
+      <c r="D159" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E159" s="5"/>
+      <c r="E159" s="2"/>
       <c r="F159" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G159" s="5"/>
-      <c r="H159" s="5"/>
-      <c r="I159" s="5"/>
-      <c r="J159" s="5" t="s">
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="K159" s="5"/>
+      <c r="K159" s="2"/>
       <c r="L159" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="M159" s="5" t="s">
+      <c r="M159" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="N159" s="5" t="s">
+      <c r="N159" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O159" s="5" t="s">
+      <c r="O159" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P159" s="5"/>
+      <c r="P159" s="2"/>
       <c r="Q159" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="R159" s="5"/>
-      <c r="S159" s="5"/>
-      <c r="T159" s="5"/>
-      <c r="U159" s="5" t="s">
+      <c r="R159" s="2"/>
+      <c r="S159" s="2"/>
+      <c r="T159" s="2"/>
+      <c r="U159" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="V159" s="5"/>
+      <c r="V159" s="2"/>
     </row>
     <row r="160" spans="1:22">
       <c r="A160" s="5" t="s">
@@ -11311,7 +11317,7 @@
         <v>460</v>
       </c>
       <c r="L163" s="4"/>
-      <c r="M163" s="2" t="s">
+      <c r="M163" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N163" s="2" t="s">
@@ -11439,52 +11445,52 @@
       <c r="V165" s="5"/>
     </row>
     <row r="166" spans="1:22">
-      <c r="A166" s="5" t="s">
+      <c r="A166" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B166" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C166" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D166" s="5" t="s">
+      <c r="D166" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E166" s="5"/>
+      <c r="E166" s="2"/>
       <c r="F166" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
-      <c r="I166" s="5"/>
-      <c r="J166" s="5" t="s">
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="K166" s="5"/>
+      <c r="K166" s="2"/>
       <c r="L166" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="M166" s="5" t="s">
+      <c r="M166" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="N166" s="5" t="s">
+      <c r="N166" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O166" s="5" t="s">
+      <c r="O166" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="P166" s="5"/>
+      <c r="P166" s="2"/>
       <c r="Q166" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="R166" s="5"/>
-      <c r="S166" s="5"/>
-      <c r="T166" s="5"/>
-      <c r="U166" s="5" t="s">
+      <c r="R166" s="2"/>
+      <c r="S166" s="2"/>
+      <c r="T166" s="2"/>
+      <c r="U166" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="V166" s="5"/>
+      <c r="V166" s="2"/>
     </row>
     <row r="167" spans="1:22">
       <c r="A167" s="5" t="s">
@@ -11607,26 +11613,26 @@
       </c>
     </row>
     <row r="169" spans="1:22">
-      <c r="A169" s="5" t="s">
+      <c r="A169" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="B169" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C169" s="5" t="s">
+      <c r="C169" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D169" s="5" t="s">
+      <c r="D169" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E169" s="5"/>
+      <c r="E169" s="2"/>
       <c r="F169" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G169" s="5"/>
-      <c r="H169" s="5"/>
-      <c r="I169" s="5"/>
-      <c r="J169" s="5" t="s">
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2" t="s">
         <v>422</v>
       </c>
       <c r="K169" s="6" t="s">
@@ -11635,23 +11641,23 @@
       <c r="L169" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="M169" s="5" t="s">
+      <c r="M169" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="N169" s="5" t="s">
+      <c r="N169" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O169" s="5" t="s">
+      <c r="O169" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="P169" s="5"/>
+      <c r="P169" s="2"/>
       <c r="Q169" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="R169" s="5"/>
-      <c r="S169" s="5"/>
-      <c r="T169" s="5"/>
-      <c r="U169" s="5" t="s">
+      <c r="R169" s="2"/>
+      <c r="S169" s="2"/>
+      <c r="T169" s="2"/>
+      <c r="U169" s="2" t="s">
         <v>422</v>
       </c>
       <c r="V169" s="6" t="s">
@@ -11795,7 +11801,7 @@
       </c>
       <c r="K172" s="2"/>
       <c r="L172" s="4"/>
-      <c r="M172" s="2" t="s">
+      <c r="M172" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N172" s="2" t="s">
@@ -12353,52 +12359,52 @@
       <c r="V182" s="5"/>
     </row>
     <row r="183" spans="1:22">
-      <c r="A183" s="5" t="s">
+      <c r="A183" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="B183" s="5" t="s">
+      <c r="B183" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C183" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D183" s="5" t="s">
+      <c r="C183" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E183" s="5"/>
+      <c r="E183" s="2"/>
       <c r="F183" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="G183" s="5"/>
-      <c r="H183" s="5"/>
-      <c r="I183" s="5"/>
-      <c r="J183" s="5" t="s">
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2"/>
+      <c r="J183" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="K183" s="5"/>
+      <c r="K183" s="2"/>
       <c r="L183" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="M183" s="5" t="s">
+      <c r="M183" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N183" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="O183" s="5" t="s">
+      <c r="N183" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O183" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="P183" s="5"/>
+      <c r="P183" s="2"/>
       <c r="Q183" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="R183" s="5"/>
-      <c r="S183" s="5"/>
-      <c r="T183" s="5"/>
-      <c r="U183" s="5" t="s">
+      <c r="R183" s="2"/>
+      <c r="S183" s="2"/>
+      <c r="T183" s="2"/>
+      <c r="U183" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="V183" s="5"/>
+      <c r="V183" s="2"/>
     </row>
     <row r="184" spans="1:22">
       <c r="A184" s="5" t="s">
@@ -12517,54 +12523,54 @@
       <c r="V185" s="5"/>
     </row>
     <row r="186" spans="1:22">
-      <c r="A186" s="5" t="s">
+      <c r="A186" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="B186" s="5" t="s">
+      <c r="B186" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C186" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D186" s="5" t="s">
+      <c r="C186" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E186" s="5"/>
+      <c r="E186" s="2"/>
       <c r="F186" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G186" s="5"/>
-      <c r="H186" s="5"/>
-      <c r="I186" s="5"/>
-      <c r="J186" s="5" t="s">
+      <c r="G186" s="2"/>
+      <c r="H186" s="2"/>
+      <c r="I186" s="2"/>
+      <c r="J186" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="K186" s="5" t="s">
+      <c r="K186" s="2" t="s">
         <v>462</v>
       </c>
       <c r="L186" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="M186" s="5" t="s">
+      <c r="M186" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="N186" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="O186" s="5" t="s">
+      <c r="N186" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O186" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="P186" s="5"/>
+      <c r="P186" s="2"/>
       <c r="Q186" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="R186" s="5"/>
-      <c r="S186" s="5"/>
-      <c r="T186" s="5"/>
-      <c r="U186" s="5" t="s">
+      <c r="R186" s="2"/>
+      <c r="S186" s="2"/>
+      <c r="T186" s="2"/>
+      <c r="U186" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="V186" s="5" t="s">
+      <c r="V186" s="2" t="s">
         <v>462</v>
       </c>
     </row>
@@ -12737,52 +12743,52 @@
       <c r="V189" s="5"/>
     </row>
     <row r="190" spans="1:22">
-      <c r="A190" s="5" t="s">
+      <c r="A190" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="B190" s="5" t="s">
+      <c r="B190" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C190" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D190" s="5" t="s">
+      <c r="C190" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E190" s="5"/>
+      <c r="E190" s="2"/>
       <c r="F190" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G190" s="5"/>
-      <c r="H190" s="5"/>
-      <c r="I190" s="5"/>
-      <c r="J190" s="5" t="s">
+      <c r="G190" s="2"/>
+      <c r="H190" s="2"/>
+      <c r="I190" s="2"/>
+      <c r="J190" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="K190" s="5"/>
+      <c r="K190" s="2"/>
       <c r="L190" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="M190" s="5" t="s">
+      <c r="M190" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N190" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="O190" s="5" t="s">
+      <c r="N190" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O190" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="P190" s="5"/>
+      <c r="P190" s="2"/>
       <c r="Q190" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="R190" s="5"/>
-      <c r="S190" s="5"/>
-      <c r="T190" s="5"/>
-      <c r="U190" s="5" t="s">
+      <c r="R190" s="2"/>
+      <c r="S190" s="2"/>
+      <c r="T190" s="2"/>
+      <c r="U190" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="V190" s="5"/>
+      <c r="V190" s="2"/>
     </row>
     <row r="191" spans="1:22">
       <c r="A191" s="5" t="s">
@@ -12921,7 +12927,7 @@
         <v>463</v>
       </c>
       <c r="L193" s="4"/>
-      <c r="M193" s="2" t="s">
+      <c r="M193" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N193" s="2" t="s">
@@ -13049,54 +13055,54 @@
       <c r="V195" s="5"/>
     </row>
     <row r="196" spans="1:22">
-      <c r="A196" s="5" t="s">
+      <c r="A196" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="B196" s="5" t="s">
+      <c r="B196" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C196" s="5" t="s">
+      <c r="C196" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D196" s="5" t="s">
+      <c r="D196" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E196" s="5"/>
+      <c r="E196" s="2"/>
       <c r="F196" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G196" s="5"/>
-      <c r="H196" s="5"/>
-      <c r="I196" s="5"/>
-      <c r="J196" s="5" t="s">
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="2"/>
+      <c r="J196" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="K196" s="5" t="s">
+      <c r="K196" s="2" t="s">
         <v>464</v>
       </c>
       <c r="L196" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="M196" s="5" t="s">
+      <c r="M196" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="N196" s="5" t="s">
+      <c r="N196" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O196" s="5" t="s">
+      <c r="O196" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="P196" s="5"/>
+      <c r="P196" s="2"/>
       <c r="Q196" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="R196" s="5"/>
-      <c r="S196" s="5"/>
-      <c r="T196" s="5"/>
-      <c r="U196" s="5" t="s">
+      <c r="R196" s="2"/>
+      <c r="S196" s="2"/>
+      <c r="T196" s="2"/>
+      <c r="U196" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="V196" s="5" t="s">
+      <c r="V196" s="2" t="s">
         <v>464</v>
       </c>
     </row>
@@ -13275,52 +13281,52 @@
       <c r="V199" s="5"/>
     </row>
     <row r="200" spans="1:22">
-      <c r="A200" s="5" t="s">
+      <c r="A200" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="B200" s="5" t="s">
+      <c r="B200" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C200" s="5" t="s">
+      <c r="C200" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D200" s="5" t="s">
+      <c r="D200" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E200" s="5"/>
+      <c r="E200" s="2"/>
       <c r="F200" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="G200" s="5"/>
-      <c r="H200" s="5"/>
-      <c r="I200" s="5"/>
-      <c r="J200" s="5" t="s">
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
+      <c r="J200" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="K200" s="5"/>
+      <c r="K200" s="2"/>
       <c r="L200" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="M200" s="5" t="s">
+      <c r="M200" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="N200" s="5" t="s">
+      <c r="N200" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O200" s="5" t="s">
+      <c r="O200" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="P200" s="5"/>
+      <c r="P200" s="2"/>
       <c r="Q200" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="R200" s="5"/>
-      <c r="S200" s="5"/>
-      <c r="T200" s="5"/>
-      <c r="U200" s="5" t="s">
+      <c r="R200" s="2"/>
+      <c r="S200" s="2"/>
+      <c r="T200" s="2"/>
+      <c r="U200" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="V200" s="5"/>
+      <c r="V200" s="2"/>
     </row>
     <row r="201" spans="1:22">
       <c r="A201" s="5" t="s">
@@ -13443,26 +13449,26 @@
       </c>
     </row>
     <row r="203" spans="1:22">
-      <c r="A203" s="5" t="s">
+      <c r="A203" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="B203" s="5" t="s">
+      <c r="B203" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C203" s="5" t="s">
+      <c r="C203" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D203" s="5" t="s">
+      <c r="D203" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E203" s="5"/>
+      <c r="E203" s="2"/>
       <c r="F203" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="G203" s="5"/>
-      <c r="H203" s="5"/>
-      <c r="I203" s="5"/>
-      <c r="J203" s="5" t="s">
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+      <c r="I203" s="2"/>
+      <c r="J203" s="2" t="s">
         <v>428</v>
       </c>
       <c r="K203" s="6" t="s">
@@ -13471,23 +13477,23 @@
       <c r="L203" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="M203" s="5" t="s">
+      <c r="M203" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="N203" s="5" t="s">
+      <c r="N203" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O203" s="5" t="s">
+      <c r="O203" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="P203" s="5"/>
+      <c r="P203" s="2"/>
       <c r="Q203" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="R203" s="5"/>
-      <c r="S203" s="5"/>
-      <c r="T203" s="5"/>
-      <c r="U203" s="5" t="s">
+      <c r="R203" s="2"/>
+      <c r="S203" s="2"/>
+      <c r="T203" s="2"/>
+      <c r="U203" s="2" t="s">
         <v>428</v>
       </c>
       <c r="V203" s="6" t="s">
@@ -13611,52 +13617,52 @@
       <c r="V205" s="5"/>
     </row>
     <row r="206" spans="1:22">
-      <c r="A206" s="5" t="s">
+      <c r="A206" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="B206" s="5" t="s">
+      <c r="B206" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C206" s="5" t="s">
+      <c r="C206" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D206" s="5" t="s">
+      <c r="D206" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E206" s="5"/>
+      <c r="E206" s="2"/>
       <c r="F206" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="G206" s="5"/>
-      <c r="H206" s="5"/>
-      <c r="I206" s="5"/>
-      <c r="J206" s="5" t="s">
+      <c r="G206" s="2"/>
+      <c r="H206" s="2"/>
+      <c r="I206" s="2"/>
+      <c r="J206" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="K206" s="5"/>
+      <c r="K206" s="2"/>
       <c r="L206" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="M206" s="5" t="s">
+      <c r="M206" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N206" s="5" t="s">
+      <c r="N206" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O206" s="5" t="s">
+      <c r="O206" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P206" s="5"/>
+      <c r="P206" s="2"/>
       <c r="Q206" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="R206" s="5"/>
-      <c r="S206" s="5"/>
-      <c r="T206" s="5"/>
-      <c r="U206" s="5" t="s">
+      <c r="R206" s="2"/>
+      <c r="S206" s="2"/>
+      <c r="T206" s="2"/>
+      <c r="U206" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="V206" s="5"/>
+      <c r="V206" s="2"/>
     </row>
     <row r="207" spans="1:22">
       <c r="A207" s="5" t="s">
@@ -13839,22 +13845,22 @@
       <c r="V209" s="5"/>
     </row>
     <row r="210" spans="1:22">
-      <c r="A210" s="5" t="s">
+      <c r="A210" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="B210" s="5" t="s">
+      <c r="B210" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C210" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D210" s="5"/>
-      <c r="E210" s="5"/>
-      <c r="F210" s="5"/>
-      <c r="G210" s="5"/>
-      <c r="H210" s="5"/>
-      <c r="I210" s="5"/>
-      <c r="J210" s="5" t="s">
+      <c r="C210" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
+      <c r="I210" s="2"/>
+      <c r="J210" s="2" t="s">
         <v>430</v>
       </c>
       <c r="K210" s="6" t="s">
@@ -13863,19 +13869,19 @@
       <c r="L210" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="M210" s="5" t="s">
+      <c r="M210" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="N210" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="O210" s="5"/>
-      <c r="P210" s="5"/>
-      <c r="Q210" s="5"/>
-      <c r="R210" s="5"/>
-      <c r="S210" s="5"/>
-      <c r="T210" s="5"/>
-      <c r="U210" s="5" t="s">
+      <c r="N210" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O210" s="2"/>
+      <c r="P210" s="2"/>
+      <c r="Q210" s="2"/>
+      <c r="R210" s="2"/>
+      <c r="S210" s="2"/>
+      <c r="T210" s="2"/>
+      <c r="U210" s="2" t="s">
         <v>430</v>
       </c>
       <c r="V210" s="6" t="s">
@@ -14283,7 +14289,7 @@
         <v>469</v>
       </c>
       <c r="L218" s="4"/>
-      <c r="M218" s="2" t="s">
+      <c r="M218" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N218" s="2" t="s">
@@ -14653,7 +14659,7 @@
         <v>470</v>
       </c>
       <c r="L225" s="4"/>
-      <c r="M225" s="2" t="s">
+      <c r="M225" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N225" s="2" t="s">
@@ -14781,52 +14787,52 @@
       <c r="V227" s="5"/>
     </row>
     <row r="228" spans="1:22">
-      <c r="A228" s="5" t="s">
+      <c r="A228" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="B228" s="5" t="s">
+      <c r="B228" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C228" s="5" t="s">
+      <c r="C228" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D228" s="5" t="s">
+      <c r="D228" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E228" s="5"/>
+      <c r="E228" s="2"/>
       <c r="F228" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="G228" s="5"/>
-      <c r="H228" s="5"/>
-      <c r="I228" s="5"/>
-      <c r="J228" s="5" t="s">
+      <c r="G228" s="2"/>
+      <c r="H228" s="2"/>
+      <c r="I228" s="2"/>
+      <c r="J228" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="K228" s="5"/>
+      <c r="K228" s="2"/>
       <c r="L228" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="M228" s="5" t="s">
+      <c r="M228" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="N228" s="5" t="s">
+      <c r="N228" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O228" s="5" t="s">
+      <c r="O228" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="P228" s="5"/>
+      <c r="P228" s="2"/>
       <c r="Q228" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="R228" s="5"/>
-      <c r="S228" s="5"/>
-      <c r="T228" s="5"/>
-      <c r="U228" s="5" t="s">
+      <c r="R228" s="2"/>
+      <c r="S228" s="2"/>
+      <c r="T228" s="2"/>
+      <c r="U228" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="V228" s="5"/>
+      <c r="V228" s="2"/>
     </row>
     <row r="229" spans="1:22">
       <c r="A229" s="5" t="s">
@@ -14965,7 +14971,7 @@
       </c>
       <c r="K231" s="2"/>
       <c r="L231" s="4"/>
-      <c r="M231" s="2" t="s">
+      <c r="M231" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N231" s="2" t="s">
@@ -15091,54 +15097,54 @@
       <c r="V233" s="5"/>
     </row>
     <row r="234" spans="1:22">
-      <c r="A234" s="5" t="s">
+      <c r="A234" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="B234" s="5" t="s">
+      <c r="B234" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C234" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D234" s="5" t="s">
+      <c r="C234" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D234" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E234" s="5"/>
+      <c r="E234" s="2"/>
       <c r="F234" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="G234" s="5"/>
-      <c r="H234" s="5"/>
-      <c r="I234" s="5"/>
-      <c r="J234" s="5" t="s">
+      <c r="G234" s="2"/>
+      <c r="H234" s="2"/>
+      <c r="I234" s="2"/>
+      <c r="J234" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="K234" s="5" t="s">
+      <c r="K234" s="2" t="s">
         <v>471</v>
       </c>
       <c r="L234" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="M234" s="5" t="s">
+      <c r="M234" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N234" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="O234" s="5" t="s">
+      <c r="N234" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O234" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="P234" s="5"/>
+      <c r="P234" s="2"/>
       <c r="Q234" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="R234" s="5"/>
-      <c r="S234" s="5"/>
-      <c r="T234" s="5"/>
-      <c r="U234" s="5" t="s">
+      <c r="R234" s="2"/>
+      <c r="S234" s="2"/>
+      <c r="T234" s="2"/>
+      <c r="U234" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="V234" s="5" t="s">
+      <c r="V234" s="2" t="s">
         <v>471</v>
       </c>
     </row>
@@ -15259,52 +15265,52 @@
       <c r="V236" s="5"/>
     </row>
     <row r="237" spans="1:22">
-      <c r="A237" s="5" t="s">
+      <c r="A237" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="B237" s="5" t="s">
+      <c r="B237" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C237" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D237" s="5" t="s">
+      <c r="C237" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D237" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E237" s="5"/>
+      <c r="E237" s="2"/>
       <c r="F237" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G237" s="5"/>
-      <c r="H237" s="5"/>
-      <c r="I237" s="5"/>
-      <c r="J237" s="5" t="s">
+      <c r="G237" s="2"/>
+      <c r="H237" s="2"/>
+      <c r="I237" s="2"/>
+      <c r="J237" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="K237" s="5"/>
+      <c r="K237" s="2"/>
       <c r="L237" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="M237" s="5" t="s">
+      <c r="M237" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="N237" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="O237" s="5" t="s">
+      <c r="N237" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O237" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="P237" s="5"/>
+      <c r="P237" s="2"/>
       <c r="Q237" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="R237" s="5"/>
-      <c r="S237" s="5"/>
-      <c r="T237" s="5"/>
-      <c r="U237" s="5" t="s">
+      <c r="R237" s="2"/>
+      <c r="S237" s="2"/>
+      <c r="T237" s="2"/>
+      <c r="U237" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="V237" s="5"/>
+      <c r="V237" s="2"/>
     </row>
     <row r="238" spans="1:22">
       <c r="A238" s="5" t="s">
@@ -15611,7 +15617,7 @@
         <v>470</v>
       </c>
       <c r="L243" s="4"/>
-      <c r="M243" s="2" t="s">
+      <c r="M243" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N243" s="2" t="s">
@@ -15885,52 +15891,52 @@
       <c r="V248" s="5"/>
     </row>
     <row r="249" spans="1:22">
-      <c r="A249" s="5" t="s">
+      <c r="A249" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="B249" s="5" t="s">
+      <c r="B249" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C249" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D249" s="5" t="s">
+      <c r="C249" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D249" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E249" s="5"/>
+      <c r="E249" s="2"/>
       <c r="F249" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G249" s="5"/>
-      <c r="H249" s="5"/>
-      <c r="I249" s="5"/>
-      <c r="J249" s="5" t="s">
+      <c r="G249" s="2"/>
+      <c r="H249" s="2"/>
+      <c r="I249" s="2"/>
+      <c r="J249" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="K249" s="5"/>
+      <c r="K249" s="2"/>
       <c r="L249" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="M249" s="5" t="s">
+      <c r="M249" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N249" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="O249" s="5" t="s">
+      <c r="N249" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O249" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="P249" s="5"/>
+      <c r="P249" s="2"/>
       <c r="Q249" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="R249" s="5"/>
-      <c r="S249" s="5"/>
-      <c r="T249" s="5"/>
-      <c r="U249" s="5" t="s">
+      <c r="R249" s="2"/>
+      <c r="S249" s="2"/>
+      <c r="T249" s="2"/>
+      <c r="U249" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="V249" s="5"/>
+      <c r="V249" s="2"/>
     </row>
     <row r="250" spans="1:22">
       <c r="A250" s="5" t="s">
@@ -16075,7 +16081,7 @@
         <v>474</v>
       </c>
       <c r="L252" s="4"/>
-      <c r="M252" s="2" t="s">
+      <c r="M252" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N252" s="2" t="s">
@@ -16203,52 +16209,52 @@
       <c r="V254" s="5"/>
     </row>
     <row r="255" spans="1:22">
-      <c r="A255" s="5" t="s">
+      <c r="A255" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="B255" s="5" t="s">
+      <c r="B255" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C255" s="5" t="s">
+      <c r="C255" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D255" s="5" t="s">
+      <c r="D255" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E255" s="5"/>
+      <c r="E255" s="2"/>
       <c r="F255" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="G255" s="5"/>
-      <c r="H255" s="5"/>
-      <c r="I255" s="5"/>
-      <c r="J255" s="5" t="s">
+      <c r="G255" s="2"/>
+      <c r="H255" s="2"/>
+      <c r="I255" s="2"/>
+      <c r="J255" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="K255" s="5"/>
+      <c r="K255" s="2"/>
       <c r="L255" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="M255" s="5" t="s">
+      <c r="M255" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="N255" s="5" t="s">
+      <c r="N255" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O255" s="5" t="s">
+      <c r="O255" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="P255" s="5"/>
+      <c r="P255" s="2"/>
       <c r="Q255" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="R255" s="5"/>
-      <c r="S255" s="5"/>
-      <c r="T255" s="5"/>
-      <c r="U255" s="5" t="s">
+      <c r="R255" s="2"/>
+      <c r="S255" s="2"/>
+      <c r="T255" s="2"/>
+      <c r="U255" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="V255" s="5"/>
+      <c r="V255" s="2"/>
     </row>
     <row r="256" spans="1:22">
       <c r="A256" s="5" t="s">
@@ -16367,52 +16373,52 @@
       <c r="V257" s="5"/>
     </row>
     <row r="258" spans="1:22">
-      <c r="A258" s="5" t="s">
+      <c r="A258" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="B258" s="5" t="s">
+      <c r="B258" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C258" s="5" t="s">
+      <c r="C258" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D258" s="5" t="s">
+      <c r="D258" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E258" s="5"/>
+      <c r="E258" s="2"/>
       <c r="F258" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="G258" s="5"/>
-      <c r="H258" s="5"/>
-      <c r="I258" s="5"/>
-      <c r="J258" s="5" t="s">
+      <c r="G258" s="2"/>
+      <c r="H258" s="2"/>
+      <c r="I258" s="2"/>
+      <c r="J258" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="K258" s="5"/>
+      <c r="K258" s="2"/>
       <c r="L258" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="M258" s="5" t="s">
+      <c r="M258" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N258" s="5" t="s">
+      <c r="N258" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O258" s="5" t="s">
+      <c r="O258" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="P258" s="5"/>
+      <c r="P258" s="2"/>
       <c r="Q258" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="R258" s="5"/>
-      <c r="S258" s="5"/>
-      <c r="T258" s="5"/>
-      <c r="U258" s="5" t="s">
+      <c r="R258" s="2"/>
+      <c r="S258" s="2"/>
+      <c r="T258" s="2"/>
+      <c r="U258" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="V258" s="5"/>
+      <c r="V258" s="2"/>
     </row>
     <row r="259" spans="1:22">
       <c r="A259" s="5" t="s">
@@ -16555,7 +16561,7 @@
       </c>
       <c r="K261" s="2"/>
       <c r="L261" s="4"/>
-      <c r="M261" s="2" t="s">
+      <c r="M261" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N261" s="2" t="s">
@@ -16681,52 +16687,52 @@
       <c r="V263" s="5"/>
     </row>
     <row r="264" spans="1:22">
-      <c r="A264" s="5" t="s">
+      <c r="A264" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="B264" s="5" t="s">
+      <c r="B264" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C264" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D264" s="5" t="s">
+      <c r="C264" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D264" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E264" s="5"/>
+      <c r="E264" s="2"/>
       <c r="F264" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="G264" s="5"/>
-      <c r="H264" s="5"/>
-      <c r="I264" s="5"/>
-      <c r="J264" s="5" t="s">
+      <c r="G264" s="2"/>
+      <c r="H264" s="2"/>
+      <c r="I264" s="2"/>
+      <c r="J264" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="K264" s="5"/>
+      <c r="K264" s="2"/>
       <c r="L264" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="M264" s="5" t="s">
+      <c r="M264" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N264" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="O264" s="5" t="s">
+      <c r="N264" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O264" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="P264" s="5"/>
+      <c r="P264" s="2"/>
       <c r="Q264" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="R264" s="5"/>
-      <c r="S264" s="5"/>
-      <c r="T264" s="5"/>
-      <c r="U264" s="5" t="s">
+      <c r="R264" s="2"/>
+      <c r="S264" s="2"/>
+      <c r="T264" s="2"/>
+      <c r="U264" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="V264" s="5"/>
+      <c r="V264" s="2"/>
     </row>
     <row r="265" spans="1:22">
       <c r="A265" s="5" t="s">
@@ -16871,7 +16877,7 @@
         <v>475</v>
       </c>
       <c r="L267" s="4"/>
-      <c r="M267" s="2" t="s">
+      <c r="M267" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N267" s="2" t="s">
@@ -17283,48 +17289,48 @@
       <c r="V274" s="5"/>
     </row>
     <row r="275" spans="1:22">
-      <c r="A275" s="5" t="s">
+      <c r="A275" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="B275" s="5" t="s">
+      <c r="B275" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C275" s="5"/>
-      <c r="D275" s="5" t="s">
+      <c r="C275" s="2"/>
+      <c r="D275" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E275" s="5"/>
+      <c r="E275" s="2"/>
       <c r="F275" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="G275" s="5"/>
-      <c r="H275" s="5"/>
-      <c r="I275" s="5"/>
-      <c r="J275" s="5" t="s">
+      <c r="G275" s="2"/>
+      <c r="H275" s="2"/>
+      <c r="I275" s="2"/>
+      <c r="J275" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="K275" s="5"/>
+      <c r="K275" s="2"/>
       <c r="L275" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="M275" s="5" t="s">
+      <c r="M275" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="N275" s="5"/>
-      <c r="O275" s="5" t="s">
+      <c r="N275" s="2"/>
+      <c r="O275" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P275" s="5"/>
+      <c r="P275" s="2"/>
       <c r="Q275" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="R275" s="5"/>
-      <c r="S275" s="5"/>
-      <c r="T275" s="5"/>
-      <c r="U275" s="5" t="s">
+      <c r="R275" s="2"/>
+      <c r="S275" s="2"/>
+      <c r="T275" s="2"/>
+      <c r="U275" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="V275" s="5"/>
+      <c r="V275" s="2"/>
     </row>
     <row r="276" spans="1:22">
       <c r="A276" s="5" t="s">
